--- a/data/NPHN7317/processed_database_data/NPHN7317.xlsx
+++ b/data/NPHN7317/processed_database_data/NPHN7317.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\origin_paper_peoject\NPI-HGNN\data\NPHN7317\processed_database_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E9D37-5695-4421-8B6E-4B87C73EDF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAE5084-B713-4271-8FFC-32A5DAC0B01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14637" uniqueCount="1994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14637" uniqueCount="1996">
   <si>
     <t>RNA names</t>
   </si>
@@ -6002,6 +6002,14 @@
   </si>
   <si>
     <t>LINC00279</t>
+  </si>
+  <si>
+    <t>AF131215.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P78332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6350,8 +6358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7293" workbookViewId="0">
-      <selection activeCell="A7318" sqref="A7318:C7318"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="A553" sqref="A553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -86845,10 +86853,10 @@
     </row>
     <row r="7318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7318" t="s">
-        <v>932</v>
+        <v>1994</v>
       </c>
       <c r="B7318" t="s">
-        <v>1700</v>
+        <v>1995</v>
       </c>
       <c r="C7318">
         <v>1</v>
